--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
   <si>
     <t>Solar Array</t>
   </si>
@@ -227,6 +227,30 @@
   </si>
   <si>
     <t>pair</t>
+  </si>
+  <si>
+    <t>moi</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>thickness</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <t>Iy</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>circular s/a will only rotate about radius axis</t>
+  </si>
+  <si>
+    <t>gimb arm</t>
   </si>
 </sst>
 </file>
@@ -555,10 +579,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +605,7 @@
         <v>53</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>8.34</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -594,7 +619,7 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -639,7 +664,7 @@
       </c>
       <c r="C5">
         <f>C2/2</f>
-        <v>6</v>
+        <v>4.17</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -670,7 +695,7 @@
       </c>
       <c r="C6">
         <f>2*SQRT(C5/2)</f>
-        <v>3.4641016151377544</v>
+        <v>2.8879058156387303</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -701,7 +726,7 @@
       </c>
       <c r="C7">
         <f>SQRT(C5/2)</f>
-        <v>1.7320508075688772</v>
+        <v>1.4439529078193651</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -718,6 +743,13 @@
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(C5/PI())</f>
+        <v>1.1521077316754744</v>
+      </c>
       <c r="E8">
         <v>2</v>
       </c>
@@ -733,6 +765,12 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9">
+        <v>0.05</v>
+      </c>
       <c r="G9" s="1" t="s">
         <v>13</v>
       </c>
@@ -781,10 +819,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +831,7 @@
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -814,11 +853,23 @@
       <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -842,11 +893,24 @@
         <f>1.5*1.5</f>
         <v>2.25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2">
+        <v>94.375</v>
+      </c>
+      <c r="I2">
+        <v>102.868749999999</v>
+      </c>
+      <c r="J2">
+        <v>8.4937500000000004</v>
+      </c>
+      <c r="K2">
+        <f>SQRT(D2^2 + E2^2)</f>
+        <v>0.90138781886599728</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -867,10 +931,10 @@
         <f>0.42*0.5</f>
         <v>0.21</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -879,15 +943,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -909,11 +974,23 @@
       <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -922,20 +999,40 @@
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C6/2 + 0.2</f>
-        <v>1.9320508075688771</v>
+        <v>1.6439529078193651</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
         <f>'Calculations Rough Input'!C$3/2</f>
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f>'Calculations Rough Input'!C2/2</f>
+        <v>4.17</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(F2*'Calculations Rough Input'!C8^2 + (EPS!F2*'Calculations Rough Input'!C9^2)/12, 3)</f>
+        <v>16.594999999999999</v>
+      </c>
+      <c r="I2">
+        <f>H2</f>
+        <v>16.594999999999999</v>
+      </c>
+      <c r="J2">
+        <f>I2</f>
+        <v>16.594999999999999</v>
+      </c>
+      <c r="K2">
+        <f>SQRT(D2^2 + E2^2)</f>
+        <v>1.6439529078193651</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -944,22 +1041,39 @@
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C6/2 + 0.2</f>
-        <v>1.9320508075688771</v>
+        <v>1.6439529078193651</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
         <f>'Calculations Rough Input'!C$3/2</f>
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="G3">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="1"/>
+        <f>G2</f>
+        <v>4.17</v>
+      </c>
+      <c r="H3">
+        <f>H2</f>
+        <v>16.594999999999999</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:K3" si="0">I2</f>
+        <v>16.594999999999999</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>16.594999999999999</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>1.6439529078193651</v>
+      </c>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -968,10 +1082,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +1094,7 @@
     <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -1001,11 +1116,14 @@
       <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -1024,9 +1142,9 @@
       <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -1045,9 +1163,9 @@
       <c r="F3" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -1066,9 +1184,9 @@
       <c r="F4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -1095,10 +1213,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1128,6 +1247,9 @@
       <c r="H1" t="s">
         <v>58</v>
       </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1418,6 +1540,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
   <si>
     <t>Solar Array</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>gimb arm</t>
+  </si>
+  <si>
+    <t>gimbal</t>
   </si>
 </sst>
 </file>
@@ -583,7 +586,7 @@
   <dimension ref="B1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B23" sqref="B23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,8 +825,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +937,24 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
   </sheetData>
@@ -946,7 +967,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -2,72 +2,102 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
-    <sheet name="TTC" sheetId="3" r:id="rId2"/>
-    <sheet name="EPS" sheetId="5" r:id="rId3"/>
-    <sheet name="Fuel" sheetId="4" r:id="rId4"/>
-    <sheet name="Thrusters" sheetId="2" r:id="rId5"/>
-    <sheet name="ThrustVectors" sheetId="6" r:id="rId6"/>
+    <sheet name="TTC" sheetId="2" r:id="rId2"/>
+    <sheet name="Probes" sheetId="3" r:id="rId3"/>
+    <sheet name="EPS" sheetId="4" r:id="rId4"/>
+    <sheet name="Fuel" sheetId="5" r:id="rId5"/>
+    <sheet name="Thrusters" sheetId="6" r:id="rId6"/>
+    <sheet name="ThrustVectors" sheetId="7" r:id="rId7"/>
+    <sheet name="updates_from_sub" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
-  <si>
-    <t>Solar Array</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+  <si>
+    <t>Sheet Name</t>
+  </si>
+  <si>
+    <t>EPS</t>
   </si>
   <si>
     <t>TTC</t>
   </si>
   <si>
+    <t>A_orb</t>
+  </si>
+  <si>
+    <t>total area</t>
+  </si>
+  <si>
     <t>Earth-pt</t>
   </si>
   <si>
     <t>Nadir</t>
   </si>
   <si>
+    <t>orbiter_SA_mass</t>
+  </si>
+  <si>
+    <t>total mass</t>
+  </si>
+  <si>
+    <t>unit kg</t>
+  </si>
+  <si>
+    <t>total kg</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
     <t>HGA</t>
   </si>
   <si>
+    <t>UHF</t>
+  </si>
+  <si>
+    <t>st area</t>
+  </si>
+  <si>
     <t>LGA</t>
   </si>
   <si>
+    <t>2P2T</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
     <t>Gimbal</t>
   </si>
   <si>
-    <t>2P2T</t>
+    <t>EUT</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>radius</t>
   </si>
   <si>
     <t>Diplexer</t>
   </si>
   <si>
-    <t>total kg</t>
-  </si>
-  <si>
-    <t>unit kg</t>
-  </si>
-  <si>
-    <t>UHF</t>
-  </si>
-  <si>
-    <t>EUT</t>
+    <t>thickness</t>
   </si>
   <si>
     <t>TOTAL</t>
@@ -76,54 +106,117 @@
     <t>DIMS</t>
   </si>
   <si>
+    <t>1.5x1.5x0.5</t>
+  </si>
+  <si>
     <t>ARM</t>
   </si>
   <si>
-    <t>1.5x1.5x0.5</t>
-  </si>
-  <si>
     <t>arm</t>
   </si>
   <si>
     <t>from sidewall</t>
   </si>
   <si>
+    <t>Probes</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>face1</t>
+  </si>
+  <si>
+    <t>face2</t>
+  </si>
+  <si>
+    <t>offset1</t>
+  </si>
+  <si>
+    <t>offset2</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>Ix</t>
+  </si>
+  <si>
+    <t>Iy</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>gimb arm</t>
+  </si>
+  <si>
+    <t>NOTE:  positive offset = outside body;   negative offset = inside body</t>
+  </si>
+  <si>
+    <t>TTC-earth</t>
+  </si>
+  <si>
+    <t>z+</t>
+  </si>
+  <si>
+    <t>y-</t>
+  </si>
+  <si>
+    <t>Worst case for now. Better:side view for area, rotate behind/front of body for other pointing, but will never present full s/a</t>
+  </si>
+  <si>
+    <t>TTC-nadir</t>
+  </si>
+  <si>
+    <t>z-</t>
+  </si>
+  <si>
+    <t>gimbal</t>
+  </si>
+  <si>
+    <t>sa1</t>
+  </si>
+  <si>
+    <t>x+</t>
+  </si>
+  <si>
+    <t>circular s/a will only rotate about radius axis</t>
+  </si>
+  <si>
+    <t>sa2</t>
+  </si>
+  <si>
+    <t>x-</t>
+  </si>
+  <si>
+    <t>moi</t>
+  </si>
+  <si>
+    <t>fuel1</t>
+  </si>
+  <si>
+    <t>see sub_output</t>
+  </si>
+  <si>
+    <t>fuel2</t>
+  </si>
+  <si>
+    <t>y+</t>
+  </si>
+  <si>
+    <t>fuel3</t>
+  </si>
+  <si>
+    <t>fuel4</t>
+  </si>
+  <si>
     <t>loc</t>
   </si>
   <si>
-    <t>x+</t>
-  </si>
-  <si>
-    <t>x-</t>
-  </si>
-  <si>
-    <t>y+</t>
-  </si>
-  <si>
-    <t>y-</t>
-  </si>
-  <si>
-    <t>z+</t>
-  </si>
-  <si>
-    <t>z-</t>
-  </si>
-  <si>
-    <t>face1</t>
-  </si>
-  <si>
-    <t>face2</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>offset1</t>
-  </si>
-  <si>
-    <t>offset2</t>
-  </si>
-  <si>
     <t>att1</t>
   </si>
   <si>
@@ -160,63 +253,6 @@
     <t>att12</t>
   </si>
   <si>
-    <t>mass</t>
-  </si>
-  <si>
-    <t>see sub_output</t>
-  </si>
-  <si>
-    <t>fuel1</t>
-  </si>
-  <si>
-    <t>fuel2</t>
-  </si>
-  <si>
-    <t>fuel3</t>
-  </si>
-  <si>
-    <t>fuel4</t>
-  </si>
-  <si>
-    <t>sa1</t>
-  </si>
-  <si>
-    <t>sa2</t>
-  </si>
-  <si>
-    <t>total mass</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>total area</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>st area</t>
-  </si>
-  <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>NOTE:  positive offset = outside body;   negative offset = inside body</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>TTC-nadir</t>
-  </si>
-  <si>
-    <t>TTC-earth</t>
-  </si>
-  <si>
-    <t>Worst case for now. Better:side view for area, rotate behind/front of body for other pointing, but will never present full s/a</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -229,38 +265,17 @@
     <t>pair</t>
   </si>
   <si>
-    <t>moi</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>Ix</t>
-  </si>
-  <si>
-    <t>Iy</t>
-  </si>
-  <si>
-    <t>Iz</t>
-  </si>
-  <si>
-    <t>circular s/a will only rotate about radius axis</t>
-  </si>
-  <si>
-    <t>gimb arm</t>
-  </si>
-  <si>
-    <t>gimbal</t>
+    <t>value</t>
+  </si>
+  <si>
+    <t>From py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +291,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -293,15 +313,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,240 +621,281 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:M11"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2">
-        <v>8.34</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2"/>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>51</v>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="C3">
+        <f>D3</f>
+        <v>8.3445942578798498</v>
+      </c>
+      <c r="D3">
+        <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
+        <v>8.3445942578798498</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <f>D4</f>
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4">
+        <f>VLOOKUP(A4, updates_from_sub!A$2:B32, 2, FALSE)</f>
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>10.6</v>
-      </c>
-      <c r="H4">
-        <f>G4*E4</f>
-        <v>10.6</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5">
-        <f>C2/2</f>
-        <v>4.17</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G5">
-        <v>0.8</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H8" si="0">G5*E5</f>
-        <v>0.8</v>
+        <f>G5*E5</f>
+        <v>10.6</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="L5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <f>2*SQRT(C5/2)</f>
-        <v>2.8879058156387303</v>
+        <f>C3/2</f>
+        <v>4.1722971289399249</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="G6">
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <f>G6*E6</f>
+        <v>0.8</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <f>2*SQRT(C6/2)</f>
+        <v>2.8887011368225424</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="H7">
+        <f>G7*E7</f>
         <v>30</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>2</v>
       </c>
-      <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6">
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7">
         <v>10.1</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7">
-        <f>SQRT(C5/2)</f>
-        <v>1.4439529078193651</v>
-      </c>
-      <c r="E7">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <f>SQRT(C6/2)</f>
+        <v>1.4443505684112712</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7">
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8">
         <v>0.1</v>
       </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
+      <c r="H8">
+        <f>G8*E8</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8">
-        <f>SQRT(C5/PI())</f>
-        <v>1.1521077316754744</v>
-      </c>
-      <c r="E8">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <f>SQRT(C6/PI())</f>
+        <v>1.1524250189221961</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8">
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9">
         <v>1.8</v>
       </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
+      <c r="H9">
+        <f>G9*E9</f>
         <v>3.6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
         <v>0.05</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="1">
-        <f>SUM(H4:H8)</f>
+      <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="2">
+        <f>SUM(H5:H9)</f>
         <v>45.3</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L9" s="1">
-        <f>SUM(L4:L6)</f>
+      <c r="K10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="2">
+        <f>SUM(L5:L7)</f>
         <v>11.6</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G10" t="s">
-        <v>14</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12">
         <v>0.5</v>
       </c>
-      <c r="M11" t="s">
-        <v>18</v>
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>8.3445942578798515</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -825,62 +904,62 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -889,7 +968,7 @@
         <v>0.75</v>
       </c>
       <c r="F2">
-        <f>'Calculations Rough Input'!H9</f>
+        <f>'Calculations Rough Input'!H10</f>
         <v>45.3</v>
       </c>
       <c r="G2">
@@ -909,16 +988,16 @@
         <f>SQRT(D2^2 + E2^2)</f>
         <v>0.90138781886599728</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>61</v>
+      <c r="L2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -927,24 +1006,24 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>'Calculations Rough Input'!L9</f>
+        <f>'Calculations Rough Input'!L10</f>
         <v>11.6</v>
       </c>
       <c r="G3">
         <f>0.42*0.5</f>
         <v>0.21</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -955,7 +1034,7 @@
       <c r="F4">
         <v>45</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -964,144 +1043,158 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="K1" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D2">
-        <f>'Calculations Rough Input'!C6/2 + 0.2</f>
-        <v>1.6439529078193651</v>
+        <f>'Calculations Rough Input'!C7/2 + 0.2</f>
+        <v>1.6443505684112711</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <f>'Calculations Rough Input'!C$3/2</f>
+        <f>'Calculations Rough Input'!D$4/2</f>
         <v>12.5</v>
       </c>
       <c r="G2">
-        <f>'Calculations Rough Input'!C2/2</f>
-        <v>4.17</v>
+        <f>'Calculations Rough Input'!D3/2</f>
+        <v>4.1722971289399249</v>
       </c>
       <c r="H2">
-        <f>ROUND(F2*'Calculations Rough Input'!C8^2 + (EPS!F2*'Calculations Rough Input'!C9^2)/12, 3)</f>
-        <v>16.594999999999999</v>
+        <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
+        <v>16.603646969639467</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>16.594999999999999</v>
+        <v>16.603646969639467</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>16.594999999999999</v>
+        <v>16.603646969639467</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.6439529078193651</v>
+        <v>1.6443505684112711</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D3">
-        <f>'Calculations Rough Input'!C6/2 + 0.2</f>
-        <v>1.6439529078193651</v>
+        <f>'Calculations Rough Input'!C7/2 + 0.2</f>
+        <v>1.6443505684112711</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <f>'Calculations Rough Input'!C$3/2</f>
+        <f>'Calculations Rough Input'!D$4/2</f>
         <v>12.5</v>
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>4.17</v>
+        <v>4.1722971289399249</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>16.594999999999999</v>
+        <v>16.603646969639467</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:K3" si="0">I2</f>
-        <v>16.594999999999999</v>
+        <f>I2</f>
+        <v>16.603646969639467</v>
       </c>
       <c r="J3">
-        <f t="shared" si="0"/>
-        <v>16.594999999999999</v>
+        <f>J2</f>
+        <v>16.603646969639467</v>
       </c>
       <c r="K3">
-        <f t="shared" si="0"/>
-        <v>1.6439529078193651</v>
-      </c>
-      <c r="L3" s="1"/>
+        <f>K2</f>
+        <v>1.6443505684112711</v>
+      </c>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="1"/>
+      <c r="L4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J5"/>
@@ -1112,47 +1205,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2">
         <v>-0.35</v>
@@ -1161,19 +1254,19 @@
         <v>-0.35</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>-0.35</v>
@@ -1182,19 +1275,19 @@
         <v>-0.35</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>-0.35</v>
@@ -1203,19 +1296,19 @@
         <v>-0.35</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>-0.35</v>
@@ -1224,7 +1317,7 @@
         <v>-0.35</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1232,7 +1325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J13"/>
@@ -1245,45 +1338,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1295,19 +1388,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1319,19 +1412,19 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1343,19 +1436,19 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1"/>
+        <v>57</v>
+      </c>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1367,18 +1460,18 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1390,18 +1483,18 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1413,18 +1506,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1436,18 +1529,18 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1459,18 +1552,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1482,18 +1575,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1505,18 +1598,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1528,18 +1621,18 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1551,7 +1644,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G13"/>
@@ -1572,36 +1665,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1613,18 +1706,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1636,18 +1729,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1659,18 +1752,18 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1682,18 +1775,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1705,18 +1798,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1728,18 +1821,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1751,18 +1844,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1774,18 +1867,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1797,18 +1890,18 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1820,18 +1913,18 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1843,18 +1936,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1866,10 +1959,47 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>8.3445942578798498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -37,6 +37,9 @@
     <t>TTC</t>
   </si>
   <si>
+    <t>From py</t>
+  </si>
+  <si>
     <t>A_orb</t>
   </si>
   <si>
@@ -266,9 +269,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>From py</t>
   </si>
 </sst>
 </file>
@@ -649,41 +649,40 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2"/>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f>D3</f>
-        <v>8.3445942578798498</v>
+        <v>8.3445942578798515</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
-        <v>8.3445942578798498</v>
+        <v>8.3445942578798515</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f>D4</f>
@@ -694,15 +693,15 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -711,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>10.6</v>
@@ -724,7 +723,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>1.4</v>
@@ -732,17 +731,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f>C3/2</f>
-        <v>4.1722971289399249</v>
+        <v>4.1722971289399258</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>0.8</v>
@@ -755,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>0.1</v>
@@ -763,17 +762,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <f>2*SQRT(C6/2)</f>
-        <v>2.8887011368225424</v>
+        <v>2.8887011368225428</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>30</v>
@@ -786,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>10.1</v>
@@ -794,17 +793,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <f>SQRT(C6/2)</f>
-        <v>1.4443505684112712</v>
+        <v>1.4443505684112714</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -816,17 +815,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <f>SQRT(C6/PI())</f>
-        <v>1.1524250189221961</v>
+        <v>1.1524250189221963</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>1.8</v>
@@ -838,20 +837,20 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>0.05</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2">
         <f>SUM(H5:H9)</f>
         <v>45.3</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <f>SUM(L5:L7)</f>
@@ -860,32 +859,32 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
         <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -915,51 +914,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -989,15 +988,15 @@
         <v>0.90138781886599728</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -1017,13 +1016,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1068,52 +1067,52 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6443505684112711</v>
+        <v>1.6443505684112714</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1124,38 +1123,38 @@
       </c>
       <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>4.1722971289399249</v>
+        <v>4.1722971289399258</v>
       </c>
       <c r="H2">
         <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>16.603646969639467</v>
+        <v>16.603646969639474</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>16.603646969639467</v>
+        <v>16.603646969639474</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>16.603646969639467</v>
+        <v>16.603646969639474</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.6443505684112711</v>
+        <v>1.6443505684112714</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6443505684112711</v>
+        <v>1.6443505684112714</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1166,23 +1165,23 @@
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>4.1722971289399249</v>
+        <v>4.1722971289399258</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>16.603646969639467</v>
+        <v>16.603646969639474</v>
       </c>
       <c r="I3">
         <f>I2</f>
-        <v>16.603646969639467</v>
+        <v>16.603646969639474</v>
       </c>
       <c r="J3">
         <f>J2</f>
-        <v>16.603646969639467</v>
+        <v>16.603646969639474</v>
       </c>
       <c r="K3">
         <f>K2</f>
-        <v>1.6443505684112711</v>
+        <v>1.6443505684112714</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1210,42 +1209,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>-0.35</v>
@@ -1254,19 +1253,19 @@
         <v>-0.35</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>-0.35</v>
@@ -1275,19 +1274,19 @@
         <v>-0.35</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>-0.35</v>
@@ -1296,19 +1295,19 @@
         <v>-0.35</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>-0.35</v>
@@ -1317,7 +1316,7 @@
         <v>-0.35</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1338,45 +1337,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1388,19 +1387,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1412,19 +1411,19 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1436,19 +1435,19 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1460,18 +1459,18 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1483,18 +1482,18 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1506,18 +1505,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1529,18 +1528,18 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1552,18 +1551,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1575,18 +1574,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1598,18 +1597,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1621,18 +1620,18 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1644,7 +1643,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1665,36 +1664,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1706,18 +1705,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1729,18 +1728,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1752,18 +1751,18 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1775,18 +1774,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1798,18 +1797,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1821,18 +1820,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1844,18 +1843,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1867,18 +1866,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1890,18 +1889,18 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1913,18 +1912,18 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1936,18 +1935,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1959,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1977,23 +1976,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8.3445942578798498</v>
+        <v>8.3445942578798515</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>25</v>

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16251410-A5D8-408A-947E-30515B0F19CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" tabRatio="839"/>
+    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,17 @@
     <sheet name="ThrustVectors" sheetId="7" r:id="rId7"/>
     <sheet name="updates_from_sub" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -274,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -663,11 +674,11 @@
       </c>
       <c r="C3">
         <f>D3</f>
-        <v>8.3445942578798515</v>
+        <v>7.8367343857315506</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
-        <v>8.3445942578798515</v>
+        <v>7.8367343857315506</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -735,7 +746,7 @@
       </c>
       <c r="C6">
         <f>C3/2</f>
-        <v>4.1722971289399258</v>
+        <v>3.9183671928657753</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -766,7 +777,7 @@
       </c>
       <c r="C7">
         <f>2*SQRT(C6/2)</f>
-        <v>2.8887011368225428</v>
+        <v>2.7994167938575258</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -797,7 +808,7 @@
       </c>
       <c r="C8">
         <f>SQRT(C6/2)</f>
-        <v>1.4443505684112714</v>
+        <v>1.3997083969287629</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -819,7 +830,7 @@
       </c>
       <c r="C9">
         <f>SQRT(C6/PI())</f>
-        <v>1.1524250189221963</v>
+        <v>1.1168057195355887</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -899,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1041,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1055,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1112,7 +1123,7 @@
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6443505684112714</v>
+        <v>1.5997083969287629</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1123,23 +1134,23 @@
       </c>
       <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>4.1722971289399258</v>
+        <v>3.9183671928657753</v>
       </c>
       <c r="H2">
         <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>16.603646969639474</v>
+        <v>15.593291856509216</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>16.603646969639474</v>
+        <v>15.593291856509216</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>16.603646969639474</v>
+        <v>15.593291856509216</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.6443505684112714</v>
+        <v>1.5997083969287629</v>
       </c>
       <c r="L2" t="s">
         <v>53</v>
@@ -1154,7 +1165,7 @@
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6443505684112714</v>
+        <v>1.5997083969287629</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1165,23 +1176,23 @@
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>4.1722971289399258</v>
+        <v>3.9183671928657753</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>16.603646969639474</v>
+        <v>15.593291856509216</v>
       </c>
       <c r="I3">
         <f>I2</f>
-        <v>16.603646969639474</v>
+        <v>15.593291856509216</v>
       </c>
       <c r="J3">
         <f>J2</f>
-        <v>16.603646969639474</v>
+        <v>15.593291856509216</v>
       </c>
       <c r="K3">
         <f>K2</f>
-        <v>1.6443505684112714</v>
+        <v>1.5997083969287629</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1194,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1325,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1652,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1967,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1987,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>8.3445942578798515</v>
+        <v>7.8367343857315506</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16251410-A5D8-408A-947E-30515B0F19CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC06E570-001C-4F8D-9EF8-18F98B49AB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="2160" windowWidth="22215" windowHeight="13020" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -674,11 +674,11 @@
       </c>
       <c r="C3">
         <f>D3</f>
-        <v>7.8367343857315506</v>
+        <v>7.8826646006315837</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
-        <v>7.8367343857315506</v>
+        <v>7.8826646006315837</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -746,7 +746,7 @@
       </c>
       <c r="C6">
         <f>C3/2</f>
-        <v>3.9183671928657753</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="C7">
         <f>2*SQRT(C6/2)</f>
-        <v>2.7994167938575258</v>
+        <v>2.8076083417441939</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -808,7 +808,7 @@
       </c>
       <c r="C8">
         <f>SQRT(C6/2)</f>
-        <v>1.3997083969287629</v>
+        <v>1.403804170872097</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -830,7 +830,7 @@
       </c>
       <c r="C9">
         <f>SQRT(C6/PI())</f>
-        <v>1.1168057195355887</v>
+        <v>1.1200736743295137</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1134,23 +1134,23 @@
       </c>
       <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>3.9183671928657753</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="H2">
         <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="L2" t="s">
         <v>53</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1176,23 +1176,23 @@
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>3.9183671928657753</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="I3">
         <f>I2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="J3">
         <f>J2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="K3">
         <f>K2</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1998,7 +1998,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7.8367343857315506</v>
+        <v>7.8826646006315837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16251410-A5D8-408A-947E-30515B0F19CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -22,17 +21,7 @@
     <sheet name="ThrustVectors" sheetId="7" r:id="rId7"/>
     <sheet name="updates_from_sub" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -285,7 +274,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -630,7 +619,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -674,11 +663,11 @@
       </c>
       <c r="C3">
         <f>D3</f>
-        <v>7.8367343857315506</v>
+        <v>7.8826646006315837</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
-        <v>7.8367343857315506</v>
+        <v>7.8826646006315837</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -746,7 +735,7 @@
       </c>
       <c r="C6">
         <f>C3/2</f>
-        <v>3.9183671928657753</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -777,7 +766,7 @@
       </c>
       <c r="C7">
         <f>2*SQRT(C6/2)</f>
-        <v>2.7994167938575258</v>
+        <v>2.8076083417441939</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -808,7 +797,7 @@
       </c>
       <c r="C8">
         <f>SQRT(C6/2)</f>
-        <v>1.3997083969287629</v>
+        <v>1.403804170872097</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -830,7 +819,7 @@
       </c>
       <c r="C9">
         <f>SQRT(C6/PI())</f>
-        <v>1.1168057195355887</v>
+        <v>1.1200736743295137</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -910,7 +899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1052,7 +1041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1066,7 +1055,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1123,7 +1112,7 @@
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1134,23 +1123,23 @@
       </c>
       <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>3.9183671928657753</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="H2">
         <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="L2" t="s">
         <v>53</v>
@@ -1165,7 +1154,7 @@
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1176,23 +1165,23 @@
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>3.9183671928657753</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="I3">
         <f>I2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="J3">
         <f>J2</f>
-        <v>15.593291856509216</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="K3">
         <f>K2</f>
-        <v>1.5997083969287629</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1205,7 +1194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1336,7 +1325,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1663,7 +1652,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1978,7 +1967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1998,7 +1987,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7.8367343857315506</v>
+        <v>7.8826646006315837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\lmaio\Nextcloud\TU Delft\2019-2020\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexisPC\PycharmProjects\DSE-Mars-Reveal\project\subsystems_design\AOCS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC06E570-001C-4F8D-9EF8-18F98B49AB53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11580" tabRatio="839"/>
+    <workbookView xWindow="630" yWindow="2160" windowWidth="22215" windowHeight="13020" tabRatio="839" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,17 @@
     <sheet name="ThrustVectors" sheetId="7" r:id="rId7"/>
     <sheet name="updates_from_sub" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,6 +48,9 @@
     <t>TTC</t>
   </si>
   <si>
+    <t>From py</t>
+  </si>
+  <si>
     <t>A_orb</t>
   </si>
   <si>
@@ -266,15 +280,12 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>From py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -619,7 +630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
@@ -649,41 +660,40 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
-      <c r="C2"/>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <f>D3</f>
-        <v>8.3445942578798498</v>
+        <v>7.8826646006315837</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
-        <v>8.3445942578798498</v>
+        <v>7.8826646006315837</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <f>D4</f>
@@ -694,15 +704,15 @@
         <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -711,7 +721,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5">
         <v>10.6</v>
@@ -724,7 +734,7 @@
         <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L5">
         <v>1.4</v>
@@ -732,17 +742,17 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <f>C3/2</f>
-        <v>4.1722971289399249</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
         <v>0.8</v>
@@ -755,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <v>0.1</v>
@@ -763,17 +773,17 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <f>2*SQRT(C6/2)</f>
-        <v>2.8887011368225424</v>
+        <v>2.8076083417441939</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>30</v>
@@ -786,7 +796,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7">
         <v>10.1</v>
@@ -794,17 +804,17 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <f>SQRT(C6/2)</f>
-        <v>1.4443505684112712</v>
+        <v>1.403804170872097</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8">
         <v>0.1</v>
@@ -816,17 +826,17 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <f>SQRT(C6/PI())</f>
-        <v>1.1524250189221961</v>
+        <v>1.1200736743295137</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9">
         <v>1.8</v>
@@ -838,20 +848,20 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>0.05</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H10" s="2">
         <f>SUM(H5:H9)</f>
         <v>45.3</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L10" s="2">
         <f>SUM(L5:L7)</f>
@@ -860,32 +870,32 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" t="s">
         <v>26</v>
-      </c>
-      <c r="K11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L12">
         <v>0.5</v>
       </c>
       <c r="M12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
@@ -900,7 +910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -915,51 +925,51 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>0.5</v>
@@ -989,15 +999,15 @@
         <v>0.90138781886599728</v>
       </c>
       <c r="L2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3">
         <v>0.4</v>
@@ -1017,13 +1027,13 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1042,7 +1052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1056,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -1068,52 +1078,52 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6443505684112711</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1124,38 +1134,38 @@
       </c>
       <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>4.1722971289399249</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="H2">
         <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>16.603646969639467</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>16.603646969639467</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>16.603646969639467</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.6443505684112711</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="L2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6443505684112711</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1166,23 +1176,23 @@
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>4.1722971289399249</v>
+        <v>3.9413323003157918</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>16.603646969639467</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="I3">
         <f>I2</f>
-        <v>16.603646969639467</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="J3">
         <f>J2</f>
-        <v>16.603646969639467</v>
+        <v>15.684667115741885</v>
       </c>
       <c r="K3">
         <f>K2</f>
-        <v>1.6443505684112711</v>
+        <v>1.6038041708720969</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1195,7 +1205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -1210,42 +1220,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>-0.35</v>
@@ -1254,19 +1264,19 @@
         <v>-0.35</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>-0.35</v>
@@ -1275,19 +1285,19 @@
         <v>-0.35</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>-0.35</v>
@@ -1296,19 +1306,19 @@
         <v>-0.35</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>-0.35</v>
@@ -1317,7 +1327,7 @@
         <v>-0.35</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1336,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1338,45 +1348,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1388,19 +1398,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1412,19 +1422,19 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1436,19 +1446,19 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1460,18 +1470,18 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1483,18 +1493,18 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1506,18 +1516,18 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1529,18 +1539,18 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1552,18 +1562,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1575,18 +1585,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1598,18 +1608,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1621,18 +1631,18 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1644,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1653,7 +1663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -1665,36 +1675,36 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2">
         <v>-1</v>
@@ -1706,18 +1716,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -1729,18 +1739,18 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1752,18 +1762,18 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1775,18 +1785,18 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1798,18 +1808,18 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1821,18 +1831,18 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1844,18 +1854,18 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1867,18 +1877,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1890,18 +1900,18 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1913,18 +1923,18 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1936,18 +1946,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1959,7 +1969,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1968,7 +1978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1977,23 +1987,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
-        <v>8.3445942578798498</v>
+        <v>7.8826646006315837</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>25</v>

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839"/>
+    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>Sheet Name</t>
   </si>
@@ -269,6 +269,39 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
   </si>
 </sst>
 </file>
@@ -623,7 +656,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1042,14 +1075,254 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>210</v>
+      </c>
+      <c r="G2" s="3">
+        <f>'Calculations Rough Input'!D3/2</f>
+        <v>3.9413323003157918</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <f>D2</f>
+        <v>1.2</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>210</v>
+      </c>
+      <c r="G3" s="3">
+        <f>G2</f>
+        <v>3.9413323003157918</v>
+      </c>
+      <c r="H3" s="3">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <f>I2</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <f>J2</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f>K2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4:D5" si="0">D3</f>
+        <v>1.2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <f>D5+2.5</f>
+        <v>3.7</v>
+      </c>
+      <c r="F6" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7">
+        <f>D6</f>
+        <v>3.7</v>
+      </c>
+      <c r="F7" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:D9" si="1">D7</f>
+        <v>3.7</v>
+      </c>
+      <c r="F8" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="F9" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10">
+        <f>D9+2.5</f>
+        <v>6.2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="3">
+        <f>D10</f>
+        <v>6.2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3">
+        <f>D11</f>
+        <v>6.2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>210</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1060,7 +1333,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" activeTab="2"/>
+    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="updates_from_sub" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -656,7 +657,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -937,7 +938,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,7 +1078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -1195,7 +1196,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D5" si="0">D3</f>
+        <f>D3</f>
         <v>1.2</v>
       </c>
       <c r="F4" s="3">
@@ -1210,7 +1211,7 @@
         <v>45</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
+        <f>D4</f>
         <v>1.2</v>
       </c>
       <c r="F5" s="3">
@@ -1255,7 +1256,7 @@
         <v>45</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" ref="D8:D9" si="1">D7</f>
+        <f>D7</f>
         <v>3.7</v>
       </c>
       <c r="F8" s="3">
@@ -1270,7 +1271,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="1"/>
+        <f>D8</f>
         <v>3.7</v>
       </c>
       <c r="F9" s="3">
@@ -1333,7 +1334,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/geometry.xlsx
+++ b/data/geometry.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839"/>
+    <workbookView xWindow="2325" yWindow="900" windowWidth="20370" windowHeight="13020" tabRatio="839" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations Rough Input" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="updates_from_sub" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -182,6 +181,39 @@
     <t>gimbal</t>
   </si>
   <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>p2</t>
+  </si>
+  <si>
+    <t>p3</t>
+  </si>
+  <si>
+    <t>p4</t>
+  </si>
+  <si>
+    <t>p5</t>
+  </si>
+  <si>
+    <t>p6</t>
+  </si>
+  <si>
+    <t>p7</t>
+  </si>
+  <si>
+    <t>p8</t>
+  </si>
+  <si>
+    <t>p9</t>
+  </si>
+  <si>
+    <t>p10</t>
+  </si>
+  <si>
+    <t>p11</t>
+  </si>
+  <si>
     <t>sa1</t>
   </si>
   <si>
@@ -270,39 +302,6 @@
   </si>
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p5</t>
-  </si>
-  <si>
-    <t>p6</t>
-  </si>
-  <si>
-    <t>p7</t>
-  </si>
-  <si>
-    <t>p8</t>
-  </si>
-  <si>
-    <t>p9</t>
-  </si>
-  <si>
-    <t>p10</t>
-  </si>
-  <si>
-    <t>p11</t>
   </si>
 </sst>
 </file>
@@ -657,7 +656,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -697,11 +696,11 @@
       </c>
       <c r="C3">
         <f>D3</f>
-        <v>7.8826646006315837</v>
+        <v>10.72229629160968</v>
       </c>
       <c r="D3">
         <f>VLOOKUP(A3, updates_from_sub!A$2:B31, 2, FALSE)</f>
-        <v>7.8826646006315837</v>
+        <v>10.72229629160968</v>
       </c>
       <c r="F3" t="s">
         <v>6</v>
@@ -769,7 +768,7 @@
       </c>
       <c r="C6">
         <f>C3/2</f>
-        <v>3.9413323003157918</v>
+        <v>5.3611481458048402</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -800,7 +799,7 @@
       </c>
       <c r="C7">
         <f>2*SQRT(C6/2)</f>
-        <v>2.8076083417441939</v>
+        <v>3.2744917608095583</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -831,7 +830,7 @@
       </c>
       <c r="C8">
         <f>SQRT(C6/2)</f>
-        <v>1.403804170872097</v>
+        <v>1.6372458804047791</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -853,7 +852,7 @@
       </c>
       <c r="C9">
         <f>SQRT(C6/PI())</f>
-        <v>1.1200736743295137</v>
+        <v>1.3063332102130678</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1078,151 +1077,146 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="D2">
         <v>1.2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3">
-        <v>210</v>
-      </c>
-      <c r="G2" s="3">
+      <c r="F2">
+        <v>212</v>
+      </c>
+      <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>3.9413323003157918</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
+        <v>5.3611481458048402</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <f>H2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2">
         <f>I2</f>
         <v>0</v>
       </c>
-      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3">
         <f>D2</f>
         <v>1.2</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3">
-        <v>210</v>
-      </c>
-      <c r="G3" s="3">
+        <v>212</v>
+      </c>
+      <c r="G3">
         <f>G2</f>
-        <v>3.9413323003157918</v>
-      </c>
-      <c r="H3" s="3">
+        <v>5.3611481458048402</v>
+      </c>
+      <c r="H3">
         <f>H2</f>
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3">
         <f>I2</f>
         <v>0</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3">
         <f>J2</f>
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <f>K2</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <f>D3</f>
         <v>1.2</v>
       </c>
       <c r="F4" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <f>D4</f>
         <v>1.2</v>
       </c>
       <c r="F5" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="D6">
@@ -1230,14 +1224,14 @@
         <v>3.7</v>
       </c>
       <c r="F6" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="D7">
@@ -1245,44 +1239,44 @@
         <v>3.7</v>
       </c>
       <c r="F7" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8">
         <f>D7</f>
         <v>3.7</v>
       </c>
       <c r="F8" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9">
         <f>D8</f>
         <v>3.7</v>
       </c>
       <c r="F9" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="D10">
@@ -1290,37 +1284,37 @@
         <v>6.2</v>
       </c>
       <c r="F10" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11">
         <f>D10</f>
         <v>6.2</v>
       </c>
       <c r="F11" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12">
         <f>D11</f>
         <v>6.2</v>
       </c>
       <c r="F12" s="3">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1379,14 +1373,14 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6038041708720969</v>
+        <v>1.8372458804047791</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1397,38 +1391,38 @@
       </c>
       <c r="G2">
         <f>'Calculations Rough Input'!D3/2</f>
-        <v>3.9413323003157918</v>
+        <v>5.3611481458048402</v>
       </c>
       <c r="H2">
         <f>F2*'Calculations Rough Input'!C9^2 + (EPS!F2*'Calculations Rough Input'!C10^2)/12</f>
-        <v>15.684667115741885</v>
+        <v>21.333934867986407</v>
       </c>
       <c r="I2">
         <f>H2</f>
-        <v>15.684667115741885</v>
+        <v>21.333934867986407</v>
       </c>
       <c r="J2">
         <f>I2</f>
-        <v>15.684667115741885</v>
+        <v>21.333934867986407</v>
       </c>
       <c r="K2">
         <f>SQRT(D2^2 + E2^2)</f>
-        <v>1.6038041708720969</v>
+        <v>1.8372458804047791</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D3">
         <f>'Calculations Rough Input'!C7/2 + 0.2</f>
-        <v>1.6038041708720969</v>
+        <v>1.8372458804047791</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1439,23 +1433,23 @@
       </c>
       <c r="G3">
         <f>G2</f>
-        <v>3.9413323003157918</v>
+        <v>5.3611481458048402</v>
       </c>
       <c r="H3">
         <f>H2</f>
-        <v>15.684667115741885</v>
+        <v>21.333934867986407</v>
       </c>
       <c r="I3">
         <f>I2</f>
-        <v>15.684667115741885</v>
+        <v>21.333934867986407</v>
       </c>
       <c r="J3">
         <f>J2</f>
-        <v>15.684667115741885</v>
+        <v>21.333934867986407</v>
       </c>
       <c r="K3">
         <f>K2</f>
-        <v>1.6038041708720969</v>
+        <v>1.8372458804047791</v>
       </c>
       <c r="L3" s="2"/>
     </row>
@@ -1504,7 +1498,7 @@
         <v>38</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>43</v>
@@ -1512,10 +1506,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1527,19 +1521,19 @@
         <v>-0.35</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>-0.35</v>
@@ -1548,16 +1542,16 @@
         <v>-0.35</v>
       </c>
       <c r="F3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1569,19 +1563,19 @@
         <v>-0.35</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>-0.35</v>
@@ -1590,7 +1584,7 @@
         <v>-0.35</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1620,7 @@
         <v>36</v>
       </c>
       <c r="F1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
         <v>37</v>
@@ -1635,7 +1629,7 @@
         <v>38</v>
       </c>
       <c r="I1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>43</v>
@@ -1643,10 +1637,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1661,19 +1655,19 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1685,16 +1679,16 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -1709,19 +1703,19 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1733,15 +1727,15 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -1756,15 +1750,15 @@
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -1779,12 +1773,12 @@
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -1802,12 +1796,12 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -1825,18 +1819,18 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1848,18 +1842,18 @@
         <v>2</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1871,18 +1865,18 @@
         <v>8</v>
       </c>
       <c r="G11" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1894,18 +1888,18 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1917,7 +1911,7 @@
         <v>8</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1947,24 +1941,24 @@
         <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
@@ -1979,18 +1973,18 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D3">
         <v>-1</v>
@@ -2002,15 +1996,15 @@
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>55</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -2025,18 +2019,18 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2048,15 +2042,15 @@
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
@@ -2071,15 +2065,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>49</v>
@@ -2094,12 +2088,12 @@
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>46</v>
@@ -2117,12 +2111,12 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
@@ -2140,18 +2134,18 @@
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2163,18 +2157,18 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2186,18 +2180,18 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2209,18 +2203,18 @@
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2232,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2253,7 +2247,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2261,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>7.8826646006315837</v>
+        <v>10.72229629160968</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
